--- a/plan/0.시스템/1.플레이어 설정/[13신창섭150703]플레이어 조작.xlsx
+++ b/plan/0.시스템/1.플레이어 설정/[13신창섭150703]플레이어 조작.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leinster/Google 드라이브/졸업작품/졸업작품/0.시스템/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leinster/Desktop/gamebusdriver/plan/0.시스템/1.플레이어 설정/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14780" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="플레이어 조작" sheetId="1" r:id="rId1"/>
     <sheet name="UI" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_">'플레이어 조작'!$C$200</definedName>
-    <definedName name="ㅇ">'플레이어 조작'!$C$206</definedName>
+    <definedName name="_">'플레이어 조작'!$C$201</definedName>
+    <definedName name="ㅇ">'플레이어 조작'!$C$207</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="138">
   <si>
     <t>1. 기획의도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,491 +86,503 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>* 기본적으로 idle 애니메이션 재생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 전투모드에 돌입한 후에는 fightIdle 재생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 전투모드에 돌입한 후에 5초 이상 전투를 진행하지 않을 경우 다시 idle 애니메이션 재생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초 이하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle_action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fightIdle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5초 이상 지속</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 직접 공격을 하는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어가 피해를 입은 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 전투모드에 돌입한 이후에 걷기를 사용하면 fightRun을 재생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* idle 애니메이션이 10초 이상 지속될 경우 idle_action 재생 후 다시 idle 애니메이션 반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>걷기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 기본 조작법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뛰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해입음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* A키를 누름과 동시에 이동 조작을 할 경우(방향키) 달리기를 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 이동(걷기) 시에는 캐릭터가 이동방향을 바라보며 run 애니메이션을 재생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 달리는 중에는 기력(mp)를 playerSkill.txt의 설정된 값만큼 소모한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 달리는 중에는 진행 방향을 바라보며 run 애니메이션을 호출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 강한 공격에 의해 경직된 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 스킬 공격에 의해 넘어진 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어가 전투모드에 진입한 경우 진행방향을 유지한 상태에서 fightRun 애니메이션을 호출한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 단, 강한 공격이나 스킬 공격 등에 의해 전투모드에 돌입한 경우 달리기를 중지한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 강한공격 미만의 약한 공격의 경우, 진행 방향을 유지하며 fightRun 애니메이션으로 변경된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* fightRun을 유지하는 상태에서는 달리기를 유지하는 동안 계속 유지된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어가 멈춰 fightIdle로 전환한 이후, 대기모드의 애니메이션을 따른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어의 공격 수단으로는 약한공격 / 강한공격 / 스킬공격으로 구분한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약한공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q, ,W, E, R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 약한공격(S)를 누르면 플레이어가 보고있는 방향으로 약한공격을 실행한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* playerSkill.txt에 의거해 플레이어의 공격을 실행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 예를들어 약한공격1 연속으로 사용 -&gt; 2, 3, 4를 순서대로 시행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 약한공격1 사용 후 0.7초 안에 다시 S버튼 클릭 -&gt; 약한공격2 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 약한공격1 사용 후 아무런 동작도 시행하지 않음 -&gt; fightIdle 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 공격 사이에 방향키를 입력할 경우, 해당 방향으로 약한공격 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 달리는 도중 A를 손에서 뗄 경우, 달리기를 취소하고 진행방향으로 걸으며 walk 애니메이션 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 공격중 강한공격 이상의 공격을 당했을 경우, 즉시 공격을 중지하고 피격 애니메이션을 실행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 강한공격(D)를 누르면 플레이어가 보고있는 방향으로 강한공격을 실행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 각각의 강한 공격은 약한 공격2, 3, 4 실행 후에 사용 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약한공격1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약한공격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약한공격3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한공격2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한공격3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한공격1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 각각의 강한공격은 약한공격과 마찬가지로 이전 공격 실행 후 0.7초 이내에 실행해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 강한공격의 애니메이션이 끝나기 전까지 아무런 행동을 취할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 약한공격과 마찬가지로 방향키와 함께 실행하면 원하는 방향으로 공격할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 각각의 스킬버튼(Q, W, E, R)을 누르면 playerSkill.txt에 의거해 각 스킬을 실행한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어가 향하고 있는 방향으로 스킬을 시전한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 스킬버튼은 약한공격, 강한공격의 애니메이션이 진행중이라도 즉시 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 이 경우 해당 공격을 즉시 중지하고 스킬을 시전한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 강한공격과 마찬가지로 애니메이션이 끝나기 전까지 아무런 행동도 취할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해입음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어가 피해를 입었을 때에 대한 설정이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어의 피격 애니메이션은 plyaerSkill.txt와 monterSkill.txt에 설정된 power의 값에 따라 다르게 표출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 기본적으로 강한 공격에 피해를 당했을 때는 normalDam1, normalDam2 중 임의로 표출된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 스킬공격을 당했을 경우 hardDam 애니메이션을 표출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회피</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어는 회피 스킬을 적의 공격을 회피하는 등의 상황에 사용할 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 기본적으로 회피스킬은 A키를 사용해 발동되며, playerSkill.txt에 정의된 기력을 소모하며 정해진 거리를 이동한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 회피 사용 시 플레이어가 바라보고 있는 방향으로 사용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 회피 사용 중 방향전환은 가능하지 않다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 회피스킬은 어떤 약한공격 / 강한공격 / 스킬공격 중에도 해당 모션을 취소하고 바로 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 해당 애니메이션을 종료시키고 즉시 dodge 애니메이션을 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 회피스킬 사용 중 모든 아이템을 사용할 수 없다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어 회피스킬 사용중 피격을 당했을 경우 스킬공격을 제외하고 나머지 공격은 피해만 입고 해당 애니메이션은 재생하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 스킬공격을 당했을 때는 즉시 회피를 취소하고 hardDam 애니메이션을 재생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 점프중에는 일부 아이템의 사용이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 물약류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 추후 아이템쪽 기획서가 완성되면 이 부분 리스트업 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 점프중에는 기본적으로 스킬 사용이 불가능하지만, 일부 스킬은 사용이 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* playerSkill.txt 에 점프스킬로 정의된 스킬만 사용 가능하다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 점프는 기본적으로 어떤 자원도 소모하지 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 점프중 몬스터에게 피격을 당했을 경우, 즉시 해당 피격에 맞는 애니메이션을 재생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 단, 피격을 당하지 않았을 경우의 위치로 이동하면서 애니메이션을 재생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 점프중 방향전환이 불가능하다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 최초 점프방향 외에 방향키의 입력을 무효화한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어는 스페이스바를 누르면 최초 입력방향, 혹은 제자리에서 점프를 할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어 캐릭터는 0.5m 만큼 상승한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 만약 점프를 헀을 때 천장등이 닿았을 경우 애니메이션 더 빠르게 재생해서 즉시 점프동작을 마친다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 실제 공중 체공시간보다 애니메이션 시간이 약간 더 길게 설정하여 바닥에 닿았을 때, 착지동작과 동시에 미끄러지듯 약간 이동할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 점프가 끝나고 jump 애니메이션 재생이 진행중일 때 이동 외에 다른 행동을 취하면 즉시 jump애니메이션을 취소하고 해당 애니메이션을 보여준다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* playerSkill.txt에 정의된 시간만큼 공중에 머무르며, jump 애니메이션을 재생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어는 Q, W, E, R 버튼을 통해 등록된 스킬을 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 스킬의 사용은 약한공격 / 강한공격 사용 중 즉시 행동을 취소하고 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 일부 스킬은 점프중에만 사용중인 것도, 달리기중에만 사용할 수 있는 스킬이 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 이는 playerSkill.txt 에서 별도로 정의한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어가 해당 버튼을 누를 시 보고있는 방향으로 스킬을 사용한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 스킬에 따라 스킬 사용중 방향전환이 가능할수도, 불가능할수도 있다. 이는 playerSkill.txt에서 정의한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 스킬 사용중 약한 피해와 강한 피해는 무시하고, 스킬공격을 당했을 경우 즉시 스킬을 취소하고 hardDam을 재생한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어는 1 ~ 6번 번호키를 사용해 등록된 아이템을 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어는 대기, 걷기 또는 달리기 상태일 때만 아이템을 사용할 수 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 조작부 / 공격부 / 아이템부로 조작계를 구분한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어가 기본적으로 사용하게 되는 기본 조작 / 상태는 다음과 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>* 아무런 조작을 하고 있지 않은 경우 애니메이션이 재생된다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>* 기본적으로 idle 애니메이션 재생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 전투모드에 돌입한 후에는 fightIdle 재생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 전투모드에 돌입한 후에 5초 이상 전투를 진행하지 않을 경우 다시 idle 애니메이션 재생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비전투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5초 이하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idle_action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fightIdle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5초 이상 지속</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 직접 공격을 하는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어가 피해를 입은 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 전투모드에 돌입한 이후에 걷기를 사용하면 fightRun을 재생한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* idle 애니메이션이 10초 이상 지속될 경우 idle_action 재생 후 다시 idle 애니메이션 반복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>걷기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뛰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3. 기본 조작법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2. 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뛰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해입음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* A키를 누름과 동시에 이동 조작을 할 경우(방향키) 달리기를 사용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 이동(걷기) 시에는 캐릭터가 이동방향을 바라보며 run 애니메이션을 재생한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 달리는 중에는 기력(mp)를 playerSkill.txt의 설정된 값만큼 소모한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 달리는 중에는 진행 방향을 바라보며 run 애니메이션을 호출한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 강한 공격에 의해 경직된 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 스킬 공격에 의해 넘어진 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어가 전투모드에 진입한 경우 진행방향을 유지한 상태에서 fightRun 애니메이션을 호출한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 단, 강한 공격이나 스킬 공격 등에 의해 전투모드에 돌입한 경우 달리기를 중지한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 강한공격 미만의 약한 공격의 경우, 진행 방향을 유지하며 fightRun 애니메이션으로 변경된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* fightRun을 유지하는 상태에서는 달리기를 유지하는 동안 계속 유지된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어가 멈춰 fightIdle로 전환한 이후, 대기모드의 애니메이션을 따른다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어의 공격 수단으로는 약한공격 / 강한공격 / 스킬공격으로 구분한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약한공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q, ,W, E, R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 약한공격(S)를 누르면 플레이어가 보고있는 방향으로 약한공격을 실행한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* playerSkill.txt에 의거해 플레이어의 공격을 실행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 각 공격 후 0.7초 이내에 같은 공격을 실행하면 다음 공격으로 이어진다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 예를들어 약한공격1 연속으로 사용 -&gt; 2, 3, 4를 순서대로 시행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 약한공격1 사용 후 0.7초 안에 다시 S버튼 클릭 -&gt; 약한공격2 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 약한공격1 사용 후 아무런 동작도 시행하지 않음 -&gt; fightIdle 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 공격 사이에 방향키를 입력할 경우, 해당 방향으로 약한공격 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 달리는 도중 A를 손에서 뗄 경우, 달리기를 취소하고 진행방향으로 걸으며 walk 애니메이션 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 공격중 강한공격 이상의 공격을 당했을 경우, 즉시 공격을 중지하고 피격 애니메이션을 실행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 강한공격(D)를 누르면 플레이어가 보고있는 방향으로 강한공격을 실행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 각각의 강한 공격은 약한 공격2, 3, 4 실행 후에 사용 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약한공격1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약한공격2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약한공격3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한공격2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한공격3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강한공격1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 각각의 강한공격은 약한공격과 마찬가지로 이전 공격 실행 후 0.7초 이내에 실행해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 강한 공격은 playerSkill.txt에 의거해서 기력이 있을 때만 사용 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 강한공격의 애니메이션이 끝나기 전까지 아무런 행동을 취할 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 약한공격과 마찬가지로 방향키와 함께 실행하면 원하는 방향으로 공격할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 각각의 스킬버튼(Q, W, E, R)을 누르면 playerSkill.txt에 의거해 각 스킬을 실행한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어가 향하고 있는 방향으로 스킬을 시전한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 스킬버튼은 약한공격, 강한공격의 애니메이션이 진행중이라도 즉시 사용할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 이 경우 해당 공격을 즉시 중지하고 스킬을 시전한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 강한공격과 마찬가지로 애니메이션이 끝나기 전까지 아무런 행동도 취할 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피해입음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어가 피해를 입었을 때에 대한 설정이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어의 피격 애니메이션은 plyaerSkill.txt와 monterSkill.txt에 설정된 power의 값에 따라 다르게 표출된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 기본적으로 강한 공격에 피해를 당했을 때는 normalDam1, normalDam2 중 임의로 표출된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 스킬공격을 당했을 경우 hardDam 애니메이션을 표출한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어는 회피 스킬을 적의 공격을 회피하는 등의 상황에 사용할 수 있다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 기본적으로 회피스킬은 A키를 사용해 발동되며, playerSkill.txt에 정의된 기력을 소모하며 정해진 거리를 이동한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 회피 사용 시 플레이어가 바라보고 있는 방향으로 사용한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 회피 사용 중 방향전환은 가능하지 않다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 회피스킬은 어떤 약한공격 / 강한공격 / 스킬공격 중에도 해당 모션을 취소하고 바로 사용할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 해당 애니메이션을 종료시키고 즉시 dodge 애니메이션을 사용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 회피스킬 사용 중 모든 아이템을 사용할 수 없다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어 회피스킬 사용중 피격을 당했을 경우 스킬공격을 제외하고 나머지 공격은 피해만 입고 해당 애니메이션은 재생하지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 스킬공격을 당했을 때는 즉시 회피를 취소하고 hardDam 애니메이션을 재생한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스킬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>점프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 점프중에는 일부 아이템의 사용이 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 물약류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 추후 아이템쪽 기획서가 완성되면 이 부분 리스트업 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 점프중에는 기본적으로 스킬 사용이 불가능하지만, 일부 스킬은 사용이 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* playerSkill.txt 에 점프스킬로 정의된 스킬만 사용 가능하다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 점프는 기본적으로 어떤 자원도 소모하지 않는다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 점프중 몬스터에게 피격을 당했을 경우, 즉시 해당 피격에 맞는 애니메이션을 재생한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 단, 피격을 당하지 않았을 경우의 위치로 이동하면서 애니메이션을 재생한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 점프중 방향전환이 불가능하다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 최초 점프방향 외에 방향키의 입력을 무효화한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어는 스페이스바를 누르면 최초 입력방향, 혹은 제자리에서 점프를 할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어 캐릭터는 0.5m 만큼 상승한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 만약 점프를 헀을 때 천장등이 닿았을 경우 애니메이션 더 빠르게 재생해서 즉시 점프동작을 마친다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 실제 공중 체공시간보다 애니메이션 시간이 약간 더 길게 설정하여 바닥에 닿았을 때, 착지동작과 동시에 미끄러지듯 약간 이동할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 점프가 끝나고 jump 애니메이션 재생이 진행중일 때 이동 외에 다른 행동을 취하면 즉시 jump애니메이션을 취소하고 해당 애니메이션을 보여준다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* playerSkill.txt에 정의된 시간만큼 공중에 머무르며, jump 애니메이션을 재생한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어는 Q, W, E, R 버튼을 통해 등록된 스킬을 사용할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 스킬의 사용은 약한공격 / 강한공격 사용 중 즉시 행동을 취소하고 사용할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 일부 스킬은 점프중에만 사용중인 것도, 달리기중에만 사용할 수 있는 스킬이 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 이는 playerSkill.txt 에서 별도로 정의한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어가 해당 버튼을 누를 시 보고있는 방향으로 스킬을 사용한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 스킬에 따라 스킬 사용중 방향전환이 가능할수도, 불가능할수도 있다. 이는 playerSkill.txt에서 정의한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 스킬 사용중 약한 피해와 강한 피해는 무시하고, 스킬공격을 당했을 경우 즉시 스킬을 취소하고 hardDam을 재생한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어는 1 ~ 6번 번호키를 사용해 등록된 아이템을 사용할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어는 대기, 걷기 또는 달리기 상태일 때만 아이템을 사용할 수 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 조작부 / 공격부 / 아이템부로 조작계를 구분한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>* 플레이어가 기본적으로 사용하게 되는 기본 조작 / 상태는 다음과 같다.</t>
+    <t>* 특정 방향의 이동키를 누르는 도중 반대키를 누르면 입력을 무시한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 각 공격 애니메이션이 끝난 후 0.7초 이내에 같은 공격을 실행하면 다음 공격으로 이어진다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 각 공격 애니메이션 종료 후 fightidle 애니메이션으로 돌아간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호작용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 플레이어는 퀘스트 등의 특정 상호작용 가능 대상의 일정 거리 이내에서 스페이스바를 누르면 상호작용을 할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +654,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -689,19 +701,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -720,7 +719,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -731,16 +730,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -780,13 +774,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>233309</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>14270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>132029</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>65069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -824,13 +818,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>355191</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>192070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>899478</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>202957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -867,13 +861,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>55509</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>146648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>64580</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>204737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -910,13 +904,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>362123</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>173472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>830210</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>198904</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -953,13 +947,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>219121</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>3672</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>664147</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>34261</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -996,13 +990,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>50391</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>52370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>594678</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>63257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1039,13 +1033,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>550809</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>19648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>43604</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>77737</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1082,13 +1076,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>781223</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>173472</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>296810</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>198905</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1125,13 +1119,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>358821</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>168486</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>803847</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>199361</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1168,13 +1162,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>538109</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>14270</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>716229</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>65069</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1212,13 +1206,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>106309</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>209756</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>574396</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>6874</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1255,13 +1249,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>204607</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>65070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>649633</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>95944</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1298,13 +1292,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>647291</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>65070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>239078</xdr:colOff>
-      <xdr:row>58</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>75957</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1341,13 +1335,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>550809</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>172048</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>43604</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>1823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1384,13 +1378,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>56078</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>853870</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>28370</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1553,13 +1547,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>28370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>7094</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>661</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1730,13 +1724,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>853870</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>184</xdr:row>
       <xdr:rowOff>64984</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>543463</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>37276</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1899,13 +1893,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>173182</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>115455</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>543463</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>145803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3480,10 +3474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J206"/>
+  <dimension ref="B2:K211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A200" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C212" sqref="C212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -3509,143 +3503,144 @@
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D33" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E33" s="7"/>
+      <c r="F33" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E34" s="7"/>
+      <c r="F34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="C37" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D34" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="C37" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E41" t="s">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F47" s="1" t="s">
+      <c r="G47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F48" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="F49" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="51" spans="3:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="C51" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="C51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
@@ -3659,530 +3654,545 @@
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>28</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>26</v>
+      <c r="C73" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>4</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D79" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="80" spans="3:4" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E83" t="s">
+    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D84" t="s">
+    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E85" t="s">
+    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D86" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="89" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="C89" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>43</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="90" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="C90" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="97" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C97" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D98" t="s">
-        <v>50</v>
+      <c r="C98" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="101" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="C104" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="103" spans="3:8" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="C103" s="6" t="s">
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
         <v>54</v>
       </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6"/>
-    </row>
-    <row r="105" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C105" t="s">
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F109" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="107" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="F107" s="1" t="s">
+      <c r="G109" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H107" s="1" t="s">
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F110" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="108" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="F108" s="1" t="s">
+      <c r="G110" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H108" s="1" t="s">
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C112" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="110" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
+    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="111" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D111" t="s">
+    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="112" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D112" t="s">
+    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F116" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="113" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E113" t="s">
+    <row r="117" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="F117" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="114" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="F114" t="s">
+    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="115" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="F115" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D116" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="118" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C118" t="s">
+    <row r="120" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C120" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D123" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E123" s="9"/>
+      <c r="F123" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="119" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D119" t="s">
+      <c r="G123" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="121" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D121" s="10" t="s">
+      <c r="H123" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D124" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E124" s="9"/>
+      <c r="F124" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E121" s="10"/>
-      <c r="F121" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="122" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D122" s="10" t="s">
+      <c r="H124" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E122" s="10"/>
-      <c r="F122" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="124" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D124" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="125" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D125" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="126" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127" spans="3:8" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C129" t="s">
-        <v>85</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="130" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D130" t="s">
-        <v>86</v>
+      <c r="C130" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="134" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="C138" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="132" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E132" t="s">
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="140" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C140" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="133" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D133" t="s">
+    <row r="142" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C142" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="135" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C135" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="137" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="C137" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
-    </row>
-    <row r="139" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C139" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="141" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C141" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="143" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C143" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="144" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C144" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="146" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="C146" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-    </row>
-    <row r="148" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C148" t="s">
-        <v>96</v>
-      </c>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="145" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C145" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="147" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="C147" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
     </row>
     <row r="149" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C149" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C150" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C152" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C155" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="151" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C151" t="s">
+    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="152" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D152" t="s">
+    <row r="157" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C157" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C154" t="s">
+    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C159" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D155" t="s">
+    <row r="160" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C156" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="158" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C158" t="s">
+    <row r="162" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="C162" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="159" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D159" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="161" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="C161" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
-    </row>
-    <row r="163" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C163" t="s">
-        <v>117</v>
-      </c>
+      <c r="D162" s="4"/>
+      <c r="E162" s="4"/>
     </row>
     <row r="164" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D164" t="s">
-        <v>122</v>
+      <c r="C164" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="165" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="167" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C167" t="s">
-        <v>112</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="166" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="168" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C168" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="169" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D169" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="171" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C171" t="s">
+      <c r="C169" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="170" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C172" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="174" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D174" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C176" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="172" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D172" t="s">
+    <row r="177" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D177" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="173" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D173" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="175" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C175" t="s">
+    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C179" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="176" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D176" t="s">
+    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D180" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="178" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C178" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="179" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D179" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="180" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C180" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C181" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C182" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D191" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="194" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="C194" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C196" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="190" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D190" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="193" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="C193" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D193" s="4"/>
-      <c r="E193" s="4"/>
-    </row>
-    <row r="195" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C195" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="196" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D196" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="197" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D197" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D198" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E199" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D200" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E201" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="198" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E198" t="s">
+    <row r="202" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C202" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="199" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D199" t="s">
+    <row r="204" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="C204" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="200" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="E200" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="201" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C201" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="203" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
-      <c r="C203" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D203" s="4"/>
-      <c r="E203" s="4"/>
-    </row>
-    <row r="205" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C205" t="s">
-        <v>131</v>
-      </c>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
     </row>
     <row r="206" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C206" t="s">
-        <v>132</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="207" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C207" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="209" spans="3:5" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.35">
+      <c r="C209" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+    </row>
+    <row r="211" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C211" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="C37:E37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="D124:E124"/>
     <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C89:E89"/>
-    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="C104:E104"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
